--- a/Data/Bilançolar/ARASE.xlsx
+++ b/Data/Bilançolar/ARASE.xlsx
@@ -2691,7 +2691,7 @@
         <v>6783256508</v>
       </c>
       <c r="C73" t="n">
-        <v>2622507797</v>
+        <v>3335644805</v>
       </c>
       <c r="D73" t="n">
         <v>5547828225</v>
@@ -2784,7 +2784,7 @@
         <v>1457146950</v>
       </c>
       <c r="C76" t="n">
-        <v>221653439</v>
+        <v>934790447</v>
       </c>
       <c r="D76" t="n">
         <v>448380854</v>
@@ -2970,7 +2970,7 @@
         <v>1457146950</v>
       </c>
       <c r="C82" t="n">
-        <v>221653439</v>
+        <v>934790447</v>
       </c>
       <c r="D82" t="n">
         <v>448380854</v>
@@ -3094,7 +3094,7 @@
         <v>37268968</v>
       </c>
       <c r="C86" t="n">
-        <v>731725833</v>
+        <v>18588825</v>
       </c>
       <c r="D86" t="n">
         <v>711963514</v>
@@ -3218,7 +3218,7 @@
         <v>1190988538</v>
       </c>
       <c r="C90" t="n">
-        <v>102294761</v>
+        <v>815431769</v>
       </c>
       <c r="D90" t="n">
         <v>-27054007</v>
